--- a/LabVIEW/Red-LED-ten_films-without_shelter.xlsx
+++ b/LabVIEW/Red-LED-ten_films-without_shelter.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\LabVIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98415\Data_Analysis\LabVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Time - Plot 0</t>
   </si>
@@ -40,30 +40,65 @@
   <si>
     <t>ln(I/I0)</t>
   </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Slope Err+-</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Reg SS</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Intercept Err+-</t>
+  </si>
+  <si>
+    <t>Std err on y</t>
+  </si>
+  <si>
+    <t>Deg of freedom</t>
+  </si>
+  <si>
+    <t>(yi-yi(xi))^2/sigma^2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -71,7 +106,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,7 +114,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,35 +122,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,14 +166,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,14 +181,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +196,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,15 +204,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -522,52 +564,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,9 +626,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -671,7 +714,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -804,7 +847,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C24E-47D6-9005-6E789D6F000A}"/>
             </c:ext>
@@ -818,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534854296"/>
-        <c:axId val="534856592"/>
+        <c:axId val="413470048"/>
+        <c:axId val="413470592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534854296"/>
+        <c:axId val="413470048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +937,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -932,15 +975,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534856592"/>
+        <c:crossAx val="413470592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534856592"/>
+        <c:axId val="413470592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1055,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1050,10 +1093,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534854296"/>
+        <c:crossAx val="413470048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1093,7 +1136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1123,7 +1166,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1694,13 +1737,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1994,10 +2037,10 @@
       <selection activeCell="D5952" sqref="D5952"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -52304,21 +52347,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D12"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -52332,10 +52380,16 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -52349,6 +52403,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F2">
         <f t="array" ref="F2:G6">LINEST(D2:D12,C2:C12,FALSE,TRUE)</f>
         <v>-0.51352453679750376</v>
@@ -52356,15 +52413,24 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <f>-0.51352*C2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -52379,21 +52445,38 @@
         <f>LN(B3/0.468195)</f>
         <v>-0.10722825317141185</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F3">
         <v>3.5039783841464014E-3</v>
       </c>
       <c r="G3" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I3">
         <v>0.186</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">-0.51352*C3</f>
+        <v>-0.10722825317141185</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K12" si="1">-0.51352*C3</f>
         <v>-9.5514719999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>(J3-K3)^2/0.0128^2</f>
+        <v>0.8374442099473014</v>
+      </c>
+      <c r="N3">
+        <f>SUM(L3:L12)</f>
+        <v>9.9813569780658113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -52408,21 +52491,34 @@
         <f t="shared" ref="D4:D12" si="2">LN(B4/0.468195)</f>
         <v>-0.2096591680083893</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4">
         <v>0.9995346301072251</v>
       </c>
       <c r="G4">
         <v>1.2788061827885017E-2</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I4">
         <v>0.372</v>
       </c>
       <c r="J4">
+        <v>-0.2096591680083893</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>-0.19102943999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="3">(J4-K4)^2/0.0128^2</f>
+        <v>2.1183274271640919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -52437,21 +52533,34 @@
         <f t="shared" si="2"/>
         <v>-0.30787660757286173</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F5">
         <v>21478.283095345956</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I5">
         <v>0.55800000000000005</v>
       </c>
       <c r="J5">
+        <v>-0.30787660757286173</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>-0.28654415999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2.7775471157769442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -52466,21 +52575,34 @@
         <f t="shared" si="2"/>
         <v>-0.39764508872629029</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F6">
         <v>3.5124408305530279</v>
       </c>
       <c r="G6">
         <v>1.6353452531380987E-3</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I6">
         <v>0.74399999999999999</v>
       </c>
       <c r="J6">
+        <v>-0.39764508872629029</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>-0.38205887999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1.4827264554412096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -52499,11 +52621,18 @@
         <v>0.92999999999999994</v>
       </c>
       <c r="J7">
+        <v>-0.48033797272493001</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>-0.47757359999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>4.6641580580672179E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -52522,11 +52651,18 @@
         <v>1.1160000000000001</v>
       </c>
       <c r="J8">
+        <v>-0.58185601035197021</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>-0.57308831999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0.46919185856952988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -52545,11 +52681,18 @@
         <v>1.302</v>
       </c>
       <c r="J9">
+        <v>-0.6691558434103031</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>-0.66860304000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>1.8651831692058909E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -52568,11 +52711,18 @@
         <v>1.488</v>
       </c>
       <c r="J10">
+        <v>-0.76113212809412856</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>-0.76411775999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>5.4406725325667843E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -52591,11 +52741,18 @@
         <v>1.6739999999999999</v>
       </c>
       <c r="J11">
+        <v>-0.85561641000124589</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>-0.85963247999999992</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>9.8442494109449677E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -52614,11 +52771,19 @@
         <v>1.8599999999999999</v>
       </c>
       <c r="J12">
+        <v>-0.93662137688844749</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>-0.95514719999999986</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2.0947639279817389</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -52632,7 +52797,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -52723,6 +52888,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>